--- a/biology/Zoologie/Elasmodactylus_tuberculosus/Elasmodactylus_tuberculosus.xlsx
+++ b/biology/Zoologie/Elasmodactylus_tuberculosus/Elasmodactylus_tuberculosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elasmodactylus tuberculosus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elasmodactylus tuberculosus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, en Zambie, en Tanzanie et dans le sud du Congo-Kinshasa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, en Zambie, en Tanzanie et dans le sud du Congo-Kinshasa.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un geckos nocturne et insectivore.
-Il mesure jusqu'à 75 mm[1].
+Il mesure jusqu'à 75 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par George Albert Boulenger[2], Elle a ensuite été placée dans le genre Pachydactylus. Après les études menées par Bauer &amp; Lamb[3] elle est replacée dans son genre d'origine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par George Albert Boulenger, Elle a ensuite été placée dans le genre Pachydactylus. Après les études menées par Bauer &amp; Lamb elle est replacée dans son genre d'origine.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1895 "1894" : Second report on additions to the lizard collection in the Natural History Museum. Proceedings of the Zoological Society of London, vol. 1894, p. 722-736 (texte intégral).</t>
         </is>
